--- a/biology/Histoire de la zoologie et de la botanique/Wen_Pei_Fang/Wen_Pei_Fang.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wen_Pei_Fang/Wen_Pei_Fang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fang Wen-Pei (方文培 ; 1899-1983) est un  botaniste chinois, expert en rhododendrons et de la   famille des érables. Il a travaillé à l'Institut de Botanique et à l'Académie chinoise des sciences après avoir obtenu ses diplômes à l'Université du Sud-Est à Nanjing, Chine. Fang a complété sa formation à l'Université d'Édimbourg en 1934 et a obtenu son doctorat en 1937. La même année, il retourne en Chine où il devient professeur de biologie à l'Université du Sichuan jusqu'à sa mort[1],[2].
-Fang Wen-Pei a identifié plus de 100 nouvelles espèces dont plus de 40 ont été nommées par lui-même. Il a publié 8 monographies et plus de 50 articles. Fang Wen-Pei a été désigné comme « l'un des botanistes chinois les plus distingués »[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fang Wen-Pei (方文培 ; 1899-1983) est un  botaniste chinois, expert en rhododendrons et de la   famille des érables. Il a travaillé à l'Institut de Botanique et à l'Académie chinoise des sciences après avoir obtenu ses diplômes à l'Université du Sud-Est à Nanjing, Chine. Fang a complété sa formation à l'Université d'Édimbourg en 1934 et a obtenu son doctorat en 1937. La même année, il retourne en Chine où il devient professeur de biologie à l'Université du Sichuan jusqu'à sa mort,.
+Fang Wen-Pei a identifié plus de 100 nouvelles espèces dont plus de 40 ont été nommées par lui-même. Il a publié 8 monographies et plus de 50 articles. Fang Wen-Pei a été désigné comme « l'un des botanistes chinois les plus distingués »,.
 </t>
         </is>
       </c>
